--- a/Document/Testcase/FSIMS - Testcase/Testcase/Testcase_Login.xlsx
+++ b/Document/Testcase/FSIMS - Testcase/Testcase/Testcase_Login.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="724"/>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="350">
   <si>
     <r>
       <rPr>
@@ -4373,9 +4373,6 @@
     <t>Màn Hình Login</t>
   </si>
   <si>
-    <t>Access vào link open màn hình "Login"</t>
-  </si>
-  <si>
     <t>Input Data</t>
   </si>
   <si>
@@ -4418,24 +4415,6 @@
   </si>
   <si>
     <t>confirm: màn hình chuyển đến màn hình trang chủ của satff</t>
-  </si>
-  <si>
-    <t>Access vào link open màn hình "Login"
-- Input Data: không input name
-- Input password đúng format
--Click vào button Login</t>
-  </si>
-  <si>
-    <t>Access vào link open màn hình "Login"
-- Input Data: input name có chứa kí tự space ở đầu
-- Input password đúng
--Click vào button Login</t>
-  </si>
-  <si>
-    <t>Access vào link open màn hình "Login"
-- Input Data:  input name sai (Ví dụ AAA)
-- Input password đúng format
--Click vào button Login</t>
   </si>
   <si>
     <t>Access vào link open màn hình "Login"
@@ -4490,6 +4469,51 @@
 - Input Data: input name sai
 - Input password &lt; 8 kí tự
 -Click vào button Login</t>
+  </si>
+  <si>
+    <t>Access vào  màn hình "Login"</t>
+  </si>
+  <si>
+    <t>05/11/2020</t>
+  </si>
+  <si>
+    <t>05/11/20209</t>
+  </si>
+  <si>
+    <t>Minh Khang</t>
+  </si>
+  <si>
+    <t>Button " Login with google " trên màn hình login</t>
+  </si>
+  <si>
+    <t>Access vào  màn hình "Login"
+-Click vào button Login</t>
+  </si>
+  <si>
+    <t>Chuyển đến trang authen của google</t>
+  </si>
+  <si>
+    <t>Đăng nhập thử bằng acount google trên màn hình authen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access vào link open màn hình "Login"
+- Click vào button Login
+- Đăng nhập bằng tài khoản google có trong database
+</t>
+  </si>
+  <si>
+    <t>Chuyên đến màn hình Forum</t>
+  </si>
+  <si>
+    <t>Access vào link open màn hình "Login"
+- Click vào button Login
+- Đăng nhập bằng tài khoản google không có trong database</t>
+  </si>
+  <si>
+    <t>Trả về màn hình login và có thông báo chưa đăng nhập thành công</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not Ok</t>
   </si>
 </sst>
 </file>
@@ -5508,6 +5532,9 @@
     <xf numFmtId="49" fontId="9" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="26" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5565,6 +5592,40 @@
     <xf numFmtId="49" fontId="10" fillId="4" borderId="39" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="38" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="39" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5586,10 +5647,6 @@
     <xf numFmtId="49" fontId="10" fillId="6" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5614,36 +5671,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="38" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="39" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="38" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5697,9 +5724,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -5898,6 +5922,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5933,6 +5974,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6117,7 +6175,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H20" sqref="H20"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -6138,61 +6196,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="68"/>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="81" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
       <c r="F1" s="51"/>
       <c r="G1" s="70"/>
       <c r="H1" s="51"/>
       <c r="I1" s="69"/>
       <c r="J1" s="69"/>
       <c r="K1" s="71"/>
-      <c r="L1" s="77" t="s">
+      <c r="L1" s="78" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="81" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="82" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="75"/>
+      <c r="E2" s="76"/>
       <c r="F2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="86" t="s">
         <v>284</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="90" t="s">
         <v>285</v>
       </c>
-      <c r="J2" s="85" t="s">
+      <c r="J2" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="K2" s="87" t="s">
+      <c r="K2" s="88" t="s">
         <v>287</v>
       </c>
-      <c r="L2" s="78"/>
+      <c r="L2" s="79"/>
     </row>
     <row r="3" spans="1:12" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="76"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="64" t="s">
         <v>281</v>
       </c>
@@ -6202,12 +6260,12 @@
       <c r="F3" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="79"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="1:12" ht="24.75" thickTop="1">
       <c r="A4" s="58" t="s">
@@ -6223,22 +6281,22 @@
         <v>300</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="F4" s="61" t="s">
         <v>301</v>
       </c>
       <c r="G4" s="62" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="J4" s="60" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="K4" s="60" t="s">
         <v>304</v>
@@ -6259,22 +6317,22 @@
         <v>305</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="F5" s="61" t="s">
         <v>308</v>
       </c>
       <c r="G5" s="62" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="I5" s="60" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="J5" s="60" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="K5" s="60" t="s">
         <v>304</v>
@@ -6295,22 +6353,22 @@
         <v>306</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="F6" s="54" t="s">
         <v>309</v>
       </c>
       <c r="G6" s="62" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="H6" s="60" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="J6" s="60" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="K6" s="60" t="s">
         <v>304</v>
@@ -6331,29 +6389,29 @@
         <v>307</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="F7" s="54" t="s">
         <v>310</v>
       </c>
       <c r="G7" s="62" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="I7" s="60" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="J7" s="60" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="K7" s="60" t="s">
         <v>304</v>
       </c>
       <c r="L7" s="55"/>
     </row>
-    <row r="8" spans="1:12" ht="60">
+    <row r="8" spans="1:12" ht="24">
       <c r="A8" s="58" t="s">
         <v>7</v>
       </c>
@@ -6364,25 +6422,25 @@
         <v>313</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="G8" s="62" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="H8" s="60" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="J8" s="60" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="K8" s="60" t="s">
         <v>304</v>
@@ -6400,32 +6458,32 @@
         <v>313</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="G9" s="62" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="H9" s="60" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="I9" s="60" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="J9" s="60" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="K9" s="60" t="s">
         <v>304</v>
       </c>
       <c r="L9" s="65"/>
     </row>
-    <row r="10" spans="1:12" ht="72">
+    <row r="10" spans="1:12" ht="60">
       <c r="A10" s="58" t="s">
         <v>9</v>
       </c>
@@ -6436,28 +6494,28 @@
         <v>313</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="G10" s="62" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="H10" s="60" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="I10" s="60" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="J10" s="60" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="K10" s="60" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="L10" s="65"/>
     </row>
@@ -6472,13 +6530,13 @@
         <v>313</v>
       </c>
       <c r="D11" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="F11" s="54" t="s">
         <v>315</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>332</v>
-      </c>
-      <c r="F11" s="54" t="s">
-        <v>316</v>
       </c>
       <c r="G11" s="62" t="s">
         <v>302</v>
@@ -6508,13 +6566,13 @@
         <v>313</v>
       </c>
       <c r="D12" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>329</v>
+      </c>
+      <c r="F12" s="54" t="s">
         <v>315</v>
-      </c>
-      <c r="E12" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>316</v>
       </c>
       <c r="G12" s="62" t="s">
         <v>302</v>
@@ -6544,13 +6602,13 @@
         <v>313</v>
       </c>
       <c r="D13" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>330</v>
+      </c>
+      <c r="F13" s="54" t="s">
         <v>315</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>334</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>316</v>
       </c>
       <c r="G13" s="62" t="s">
         <v>302</v>
@@ -6580,13 +6638,13 @@
         <v>313</v>
       </c>
       <c r="D14" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="F14" s="54" t="s">
         <v>315</v>
-      </c>
-      <c r="E14" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="F14" s="54" t="s">
-        <v>316</v>
       </c>
       <c r="G14" s="62" t="s">
         <v>302</v>
@@ -6614,13 +6672,13 @@
         <v>313</v>
       </c>
       <c r="D15" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="F15" s="54" t="s">
         <v>315</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>340</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>316</v>
       </c>
       <c r="G15" s="62" t="s">
         <v>302</v>
@@ -6637,24 +6695,24 @@
       <c r="K15" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="L15" s="136"/>
+      <c r="L15" s="72"/>
     </row>
     <row r="16" spans="1:12" ht="60">
       <c r="A16" s="58"/>
       <c r="B16" s="59" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C16" s="60" t="s">
         <v>313</v>
       </c>
       <c r="D16" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="F16" s="54" t="s">
         <v>315</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>340</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>316</v>
       </c>
       <c r="G16" s="62" t="s">
         <v>302</v>
@@ -6671,24 +6729,24 @@
       <c r="K16" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="L16" s="136"/>
+      <c r="L16" s="72"/>
     </row>
     <row r="17" spans="1:12" ht="60">
       <c r="A17" s="58"/>
       <c r="B17" s="59" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C17" s="60" t="s">
         <v>313</v>
       </c>
       <c r="D17" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="F17" s="54" t="s">
         <v>315</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>340</v>
-      </c>
-      <c r="F17" s="54" t="s">
-        <v>316</v>
       </c>
       <c r="G17" s="62" t="s">
         <v>302</v>
@@ -6705,24 +6763,24 @@
       <c r="K17" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="L17" s="136"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="1:12" ht="60">
       <c r="A18" s="58"/>
       <c r="B18" s="59" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C18" s="60" t="s">
         <v>313</v>
       </c>
       <c r="D18" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="F18" s="54" t="s">
         <v>315</v>
-      </c>
-      <c r="E18" s="61" t="s">
-        <v>340</v>
-      </c>
-      <c r="F18" s="54" t="s">
-        <v>316</v>
       </c>
       <c r="G18" s="62" t="s">
         <v>302</v>
@@ -6739,24 +6797,24 @@
       <c r="K18" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="L18" s="136"/>
+      <c r="L18" s="72"/>
     </row>
     <row r="19" spans="1:12" ht="60">
       <c r="A19" s="58"/>
       <c r="B19" s="59" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C19" s="60" t="s">
         <v>313</v>
       </c>
       <c r="D19" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="F19" s="54" t="s">
         <v>315</v>
-      </c>
-      <c r="E19" s="61" t="s">
-        <v>339</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>316</v>
       </c>
       <c r="G19" s="62" t="s">
         <v>302</v>
@@ -6773,24 +6831,24 @@
       <c r="K19" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="L19" s="136"/>
+      <c r="L19" s="72"/>
     </row>
     <row r="20" spans="1:12" ht="60">
       <c r="A20" s="58"/>
       <c r="B20" s="59" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C20" s="60" t="s">
         <v>313</v>
       </c>
       <c r="D20" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>334</v>
+      </c>
+      <c r="F20" s="54" t="s">
         <v>315</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>338</v>
-      </c>
-      <c r="F20" s="54" t="s">
-        <v>316</v>
       </c>
       <c r="G20" s="62" t="s">
         <v>302</v>
@@ -6807,24 +6865,24 @@
       <c r="K20" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="L20" s="136"/>
+      <c r="L20" s="72"/>
     </row>
     <row r="21" spans="1:12" ht="72">
       <c r="A21" s="58"/>
       <c r="B21" s="59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C21" s="60" t="s">
         <v>313</v>
       </c>
       <c r="D21" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G21" s="62" t="s">
         <v>302</v>
@@ -6841,24 +6899,24 @@
       <c r="K21" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="L21" s="136"/>
+      <c r="L21" s="72"/>
     </row>
     <row r="22" spans="1:12" ht="72">
       <c r="A22" s="58"/>
       <c r="B22" s="59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C22" s="60" t="s">
         <v>313</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E22" s="61" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F22" s="54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G22" s="62" t="s">
         <v>302</v>
@@ -6875,24 +6933,24 @@
       <c r="K22" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="L22" s="136"/>
+      <c r="L22" s="72"/>
     </row>
     <row r="23" spans="1:12" ht="72">
       <c r="A23" s="58"/>
       <c r="B23" s="59" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C23" s="60" t="s">
         <v>313</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F23" s="54" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G23" s="62" t="s">
         <v>302</v>
@@ -6909,7 +6967,7 @@
       <c r="K23" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="L23" s="136"/>
+      <c r="L23" s="72"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:M14"/>
@@ -6984,27 +7042,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110" t="s">
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112" t="s">
+      <c r="F1" s="95"/>
+      <c r="G1" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="113" t="s">
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="113"/>
+      <c r="K1" s="97"/>
       <c r="L1" s="36" t="s">
         <v>18</v>
       </c>
@@ -7017,19 +7075,19 @@
       <c r="O1" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="P1" s="104" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="30.75" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="94" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="109" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="98" t="s">
@@ -7038,39 +7096,39 @@
       <c r="F2" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="114" t="s">
+      <c r="G2" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="116" t="s">
+      <c r="H2" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="116"/>
-      <c r="J2" s="117" t="s">
+      <c r="I2" s="102"/>
+      <c r="J2" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="117"/>
-      <c r="L2" s="104" t="s">
+      <c r="K2" s="103"/>
+      <c r="L2" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="106" t="s">
+      <c r="M2" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="N2" s="100" t="s">
+      <c r="N2" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="O2" s="102" t="s">
+      <c r="O2" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="92"/>
+      <c r="P2" s="105"/>
     </row>
     <row r="3" spans="1:16" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="99"/>
       <c r="F3" s="99"/>
-      <c r="G3" s="115"/>
+      <c r="G3" s="101"/>
       <c r="H3" s="7" t="s">
         <v>174</v>
       </c>
@@ -7083,11 +7141,11 @@
       <c r="K3" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="105"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="93"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="106"/>
     </row>
     <row r="4" spans="1:16" ht="33" customHeight="1" thickTop="1">
       <c r="A4" s="10">
@@ -7705,6 +7763,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -7714,15 +7781,6 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.27559055118110237" right="0.19685039370078741" top="0.47244094488188981" bottom="0.74803149606299213" header="0.23622047244094491" footer="0.31496062992125984"/>
@@ -8783,95 +8841,95 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="25.5" customHeight="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110" t="s">
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112" t="s">
+      <c r="F2" s="95"/>
+      <c r="G2" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="113" t="s">
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97" t="s">
         <v>231</v>
       </c>
-      <c r="K2" s="113"/>
-      <c r="L2" s="129" t="s">
+      <c r="K2" s="97"/>
+      <c r="L2" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="120" t="s">
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="121" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="30.75" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="94" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="124" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="123" t="s">
+      <c r="D3" s="124" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="126" t="s">
         <v>236</v>
       </c>
       <c r="F3" s="98" t="s">
         <v>237</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="76" t="s">
         <v>238</v>
       </c>
-      <c r="H3" s="116" t="s">
+      <c r="H3" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="I3" s="116"/>
-      <c r="J3" s="117" t="s">
+      <c r="I3" s="102"/>
+      <c r="J3" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="K3" s="117"/>
-      <c r="L3" s="127" t="s">
+      <c r="K3" s="103"/>
+      <c r="L3" s="128" t="s">
         <v>241</v>
       </c>
-      <c r="M3" s="132" t="s">
+      <c r="M3" s="133" t="s">
         <v>242</v>
       </c>
-      <c r="N3" s="132" t="s">
+      <c r="N3" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="134" t="s">
+      <c r="O3" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="P3" s="118" t="s">
+      <c r="P3" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="Q3" s="118" t="s">
+      <c r="Q3" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="R3" s="121"/>
+      <c r="R3" s="122"/>
     </row>
     <row r="4" spans="1:18" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="126"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="127"/>
       <c r="F4" s="99"/>
-      <c r="G4" s="76"/>
+      <c r="G4" s="77"/>
       <c r="H4" s="7" t="s">
         <v>243</v>
       </c>
@@ -8884,13 +8942,13 @@
       <c r="K4" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="L4" s="128"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="122"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="123"/>
     </row>
     <row r="5" spans="1:18" ht="33" customHeight="1" thickTop="1">
       <c r="A5" s="10">
@@ -9542,6 +9600,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R2:R4"/>
     <mergeCell ref="B3:B4"/>
@@ -9558,11 +9621,6 @@
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.27559055118110237" right="0.19685039370078741" top="0.47244094488188981" bottom="0.74803149606299213" header="0.23622047244094491" footer="0.31496062992125984"/>
@@ -9575,7 +9633,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9588,9 +9648,7 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9726,9 +9784,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D38584B9-ED7E-47B7-A169-35C9D95B0D87}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B61FC63E-232D-4AED-9127-173F3094F8C8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="48a0dc20-6970-412a-bc5f-fbc17c22b70b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9742,17 +9808,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B61FC63E-232D-4AED-9127-173F3094F8C8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D38584B9-ED7E-47B7-A169-35C9D95B0D87}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="48a0dc20-6970-412a-bc5f-fbc17c22b70b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
